--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Adam23</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>14.2634304955291</v>
+        <v>0.058936</v>
       </c>
       <c r="H2">
-        <v>14.2634304955291</v>
+        <v>0.176808</v>
       </c>
       <c r="I2">
-        <v>0.8896130424049071</v>
+        <v>0.003640699631737656</v>
       </c>
       <c r="J2">
-        <v>0.8896130424049071</v>
+        <v>0.003640699631737656</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.111284246337168</v>
+        <v>0.1145763333333333</v>
       </c>
       <c r="N2">
-        <v>0.111284246337168</v>
+        <v>0.343729</v>
       </c>
       <c r="O2">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="P2">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="Q2">
-        <v>1.587295112877535</v>
+        <v>0.006752670781333332</v>
       </c>
       <c r="R2">
-        <v>1.587295112877535</v>
+        <v>0.06077403703199999</v>
       </c>
       <c r="S2">
-        <v>0.005876568671240473</v>
+        <v>2.38722636427779E-05</v>
       </c>
       <c r="T2">
-        <v>0.005876568671240473</v>
+        <v>2.38722636427779E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>14.2634304955291</v>
+        <v>0.058936</v>
       </c>
       <c r="H3">
-        <v>14.2634304955291</v>
+        <v>0.176808</v>
       </c>
       <c r="I3">
-        <v>0.8896130424049071</v>
+        <v>0.003640699631737656</v>
       </c>
       <c r="J3">
-        <v>0.8896130424049071</v>
+        <v>0.003640699631737656</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.966737813242499</v>
+        <v>9.390663666666667</v>
       </c>
       <c r="N3">
-        <v>8.966737813242499</v>
+        <v>28.171991</v>
       </c>
       <c r="O3">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="P3">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="Q3">
-        <v>127.896441570817</v>
+        <v>0.5534481538586666</v>
       </c>
       <c r="R3">
-        <v>127.896441570817</v>
+        <v>4.981033384728</v>
       </c>
       <c r="S3">
-        <v>0.4735050310434546</v>
+        <v>0.001956568100142747</v>
       </c>
       <c r="T3">
-        <v>0.4735050310434546</v>
+        <v>0.001956568100142747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>14.2634304955291</v>
+        <v>0.058936</v>
       </c>
       <c r="H4">
-        <v>14.2634304955291</v>
+        <v>0.176808</v>
       </c>
       <c r="I4">
-        <v>0.8896130424049071</v>
+        <v>0.003640699631737656</v>
       </c>
       <c r="J4">
-        <v>0.8896130424049071</v>
+        <v>0.003640699631737656</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.76852947316154</v>
+        <v>7.968512</v>
       </c>
       <c r="N4">
-        <v>7.76852947316154</v>
+        <v>23.905536</v>
       </c>
       <c r="O4">
-        <v>0.4611346991735034</v>
+        <v>0.4560275320377672</v>
       </c>
       <c r="P4">
-        <v>0.4611346991735034</v>
+        <v>0.4560275320377672</v>
       </c>
       <c r="Q4">
-        <v>110.8058801929089</v>
+        <v>0.4696322232319999</v>
       </c>
       <c r="R4">
-        <v>110.8058801929089</v>
+        <v>4.226690009087999</v>
       </c>
       <c r="S4">
-        <v>0.410231442690212</v>
+        <v>0.001660259267952131</v>
       </c>
       <c r="T4">
-        <v>0.410231442690212</v>
+        <v>0.001660259267952131</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.76986692215546</v>
+        <v>14.32797533333333</v>
       </c>
       <c r="H5">
-        <v>1.76986692215546</v>
+        <v>42.983926</v>
       </c>
       <c r="I5">
-        <v>0.110386957595093</v>
+        <v>0.8850932285803735</v>
       </c>
       <c r="J5">
-        <v>0.110386957595093</v>
+        <v>0.8850932285803734</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.111284246337168</v>
+        <v>0.1145763333333333</v>
       </c>
       <c r="N5">
-        <v>0.111284246337168</v>
+        <v>0.343729</v>
       </c>
       <c r="O5">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="P5">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="Q5">
-        <v>0.1969583065491536</v>
+        <v>1.641646877783778</v>
       </c>
       <c r="R5">
-        <v>0.1969583065491536</v>
+        <v>14.774821900054</v>
       </c>
       <c r="S5">
-        <v>0.0007291895529805198</v>
+        <v>0.005803603987792723</v>
       </c>
       <c r="T5">
-        <v>0.0007291895529805198</v>
+        <v>0.005803603987792722</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.76986692215546</v>
+        <v>14.32797533333333</v>
       </c>
       <c r="H6">
-        <v>1.76986692215546</v>
+        <v>42.983926</v>
       </c>
       <c r="I6">
-        <v>0.110386957595093</v>
+        <v>0.8850932285803735</v>
       </c>
       <c r="J6">
-        <v>0.110386957595093</v>
+        <v>0.8850932285803734</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.966737813242499</v>
+        <v>9.390663666666667</v>
       </c>
       <c r="N6">
-        <v>8.966737813242499</v>
+        <v>28.171991</v>
       </c>
       <c r="O6">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="P6">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="Q6">
-        <v>15.86993265529848</v>
+        <v>134.5491973796296</v>
       </c>
       <c r="R6">
-        <v>15.86993265529848</v>
+        <v>1210.942776416666</v>
       </c>
       <c r="S6">
-        <v>0.058754511558821</v>
+        <v>0.4756627439397336</v>
       </c>
       <c r="T6">
-        <v>0.058754511558821</v>
+        <v>0.4756627439397335</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>14.32797533333333</v>
+      </c>
+      <c r="H7">
+        <v>42.983926</v>
+      </c>
+      <c r="I7">
+        <v>0.8850932285803735</v>
+      </c>
+      <c r="J7">
+        <v>0.8850932285803734</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.968512</v>
+      </c>
+      <c r="N7">
+        <v>23.905536</v>
+      </c>
+      <c r="O7">
+        <v>0.4560275320377672</v>
+      </c>
+      <c r="P7">
+        <v>0.4560275320377672</v>
+      </c>
+      <c r="Q7">
+        <v>114.1726433793707</v>
+      </c>
+      <c r="R7">
+        <v>1027.553790414336</v>
+      </c>
+      <c r="S7">
+        <v>0.4036268806528471</v>
+      </c>
+      <c r="T7">
+        <v>0.4036268806528471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.801186</v>
+      </c>
+      <c r="H8">
+        <v>5.403558</v>
+      </c>
+      <c r="I8">
+        <v>0.111266071787889</v>
+      </c>
+      <c r="J8">
+        <v>0.1112660717878889</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.1145763333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.343729</v>
+      </c>
+      <c r="O8">
+        <v>0.006557053879060051</v>
+      </c>
+      <c r="P8">
+        <v>0.006557053879060051</v>
+      </c>
+      <c r="Q8">
+        <v>0.2063732875313333</v>
+      </c>
+      <c r="R8">
+        <v>1.857359587782</v>
+      </c>
+      <c r="S8">
+        <v>0.0007295776276245513</v>
+      </c>
+      <c r="T8">
+        <v>0.0007295776276245512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.76986692215546</v>
-      </c>
-      <c r="H7">
-        <v>1.76986692215546</v>
-      </c>
-      <c r="I7">
-        <v>0.110386957595093</v>
-      </c>
-      <c r="J7">
-        <v>0.110386957595093</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>7.76852947316154</v>
-      </c>
-      <c r="N7">
-        <v>7.76852947316154</v>
-      </c>
-      <c r="O7">
-        <v>0.4611346991735034</v>
-      </c>
-      <c r="P7">
-        <v>0.4611346991735034</v>
-      </c>
-      <c r="Q7">
-        <v>13.74926334833839</v>
-      </c>
-      <c r="R7">
-        <v>13.74926334833839</v>
-      </c>
-      <c r="S7">
-        <v>0.0509032564832915</v>
-      </c>
-      <c r="T7">
-        <v>0.0509032564832915</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.801186</v>
+      </c>
+      <c r="H9">
+        <v>5.403558</v>
+      </c>
+      <c r="I9">
+        <v>0.111266071787889</v>
+      </c>
+      <c r="J9">
+        <v>0.1112660717878889</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.390663666666667</v>
+      </c>
+      <c r="N9">
+        <v>28.171991</v>
+      </c>
+      <c r="O9">
+        <v>0.5374154140831726</v>
+      </c>
+      <c r="P9">
+        <v>0.5374154140831726</v>
+      </c>
+      <c r="Q9">
+        <v>16.91433192710867</v>
+      </c>
+      <c r="R9">
+        <v>152.228987343978</v>
+      </c>
+      <c r="S9">
+        <v>0.05979610204329636</v>
+      </c>
+      <c r="T9">
+        <v>0.05979610204329635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.801186</v>
+      </c>
+      <c r="H10">
+        <v>5.403558</v>
+      </c>
+      <c r="I10">
+        <v>0.111266071787889</v>
+      </c>
+      <c r="J10">
+        <v>0.1112660717878889</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.968512</v>
+      </c>
+      <c r="N10">
+        <v>23.905536</v>
+      </c>
+      <c r="O10">
+        <v>0.4560275320377672</v>
+      </c>
+      <c r="P10">
+        <v>0.4560275320377672</v>
+      </c>
+      <c r="Q10">
+        <v>14.352772255232</v>
+      </c>
+      <c r="R10">
+        <v>129.174950297088</v>
+      </c>
+      <c r="S10">
+        <v>0.05074039211696804</v>
+      </c>
+      <c r="T10">
+        <v>0.05074039211696803</v>
       </c>
     </row>
   </sheetData>
